--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H2">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I2">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J2">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>707.6047497398154</v>
+        <v>534.2947811778785</v>
       </c>
       <c r="R2">
-        <v>6368.442747658339</v>
+        <v>4808.653030600906</v>
       </c>
       <c r="S2">
-        <v>0.00719935374984217</v>
+        <v>0.003720020220974534</v>
       </c>
       <c r="T2">
-        <v>0.007199353749842171</v>
+        <v>0.003720020220974534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H3">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I3">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J3">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>777.9862949443178</v>
+        <v>619.0002693912858</v>
       </c>
       <c r="R3">
-        <v>7001.87665449886</v>
+        <v>5571.002424521573</v>
       </c>
       <c r="S3">
-        <v>0.007915433795339369</v>
+        <v>0.004309781042307523</v>
       </c>
       <c r="T3">
-        <v>0.007915433795339369</v>
+        <v>0.004309781042307524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H4">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I4">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J4">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>431.2239664076783</v>
+        <v>469.8475352847751</v>
       </c>
       <c r="R4">
-        <v>3881.015697669105</v>
+        <v>4228.627817562976</v>
       </c>
       <c r="S4">
-        <v>0.004387384172760941</v>
+        <v>0.003271307139068825</v>
       </c>
       <c r="T4">
-        <v>0.004387384172760941</v>
+        <v>0.003271307139068825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.608931666666666</v>
+        <v>3.667069666666666</v>
       </c>
       <c r="H5">
-        <v>13.826795</v>
+        <v>11.001209</v>
       </c>
       <c r="I5">
-        <v>0.02269509467890621</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="J5">
-        <v>0.02269509467890622</v>
+        <v>0.01298011522000835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>313.8236474045722</v>
+        <v>241.1504580481703</v>
       </c>
       <c r="R5">
-        <v>2824.41282664115</v>
+        <v>2170.354122433533</v>
       </c>
       <c r="S5">
-        <v>0.003192922960963735</v>
+        <v>0.001679006817657471</v>
       </c>
       <c r="T5">
-        <v>0.003192922960963736</v>
+        <v>0.001679006817657471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J6">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>25826.4047282115</v>
+        <v>24509.54527243074</v>
       </c>
       <c r="R6">
-        <v>232437.6425539035</v>
+        <v>220585.9074518766</v>
       </c>
       <c r="S6">
-        <v>0.2627645218511581</v>
+        <v>0.1706473789980341</v>
       </c>
       <c r="T6">
-        <v>0.2627645218511582</v>
+        <v>0.1706473789980341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J7">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>28395.21489026419</v>
@@ -883,10 +883,10 @@
         <v>255556.9340123777</v>
       </c>
       <c r="S7">
-        <v>0.2889002608772272</v>
+        <v>0.1977013014011327</v>
       </c>
       <c r="T7">
-        <v>0.2889002608772272</v>
+        <v>0.1977013014011327</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J8">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>15738.96259040716</v>
+        <v>21553.17596742228</v>
       </c>
       <c r="R8">
-        <v>141650.6633136645</v>
+        <v>193978.5837068004</v>
       </c>
       <c r="S8">
-        <v>0.1601322763669088</v>
+        <v>0.1500636975122168</v>
       </c>
       <c r="T8">
-        <v>0.1601322763669088</v>
+        <v>0.1500636975122168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8283334739316415</v>
+        <v>0.5954329572989919</v>
       </c>
       <c r="J9">
-        <v>0.8283334739316416</v>
+        <v>0.595432957298992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>11454.04483807406</v>
+        <v>11062.22309708713</v>
       </c>
       <c r="R9">
-        <v>103086.4035426666</v>
+        <v>99560.00787378412</v>
       </c>
       <c r="S9">
-        <v>0.1165364148363473</v>
+        <v>0.0770205793876084</v>
       </c>
       <c r="T9">
-        <v>0.1165364148363473</v>
+        <v>0.07702057938760841</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H10">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J10">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>4619.76064843252</v>
+        <v>16095.95645231312</v>
       </c>
       <c r="R10">
-        <v>41577.84583589268</v>
+        <v>144863.6080708181</v>
       </c>
       <c r="S10">
-        <v>0.0470026397644947</v>
+        <v>0.1120678801064236</v>
       </c>
       <c r="T10">
-        <v>0.0470026397644947</v>
+        <v>0.1120678801064236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H11">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J11">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>5079.262782966227</v>
+        <v>18647.76099464687</v>
       </c>
       <c r="R11">
-        <v>45713.36504669604</v>
+        <v>167829.8489518218</v>
       </c>
       <c r="S11">
-        <v>0.05167773333407873</v>
+        <v>0.1298347848785963</v>
       </c>
       <c r="T11">
-        <v>0.05167773333407871</v>
+        <v>0.1298347848785963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H12">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J12">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>2815.345023339214</v>
+        <v>14154.44382686684</v>
       </c>
       <c r="R12">
-        <v>25338.10521005292</v>
+        <v>127389.9944418016</v>
       </c>
       <c r="S12">
-        <v>0.02864404847244087</v>
+        <v>0.09855012458948738</v>
       </c>
       <c r="T12">
-        <v>0.02864404847244087</v>
+        <v>0.09855012458948739</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.09047233333333</v>
+        <v>110.4727123333333</v>
       </c>
       <c r="H13">
-        <v>90.271417</v>
+        <v>331.418137</v>
       </c>
       <c r="I13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346852</v>
       </c>
       <c r="J13">
-        <v>0.148170154805508</v>
+        <v>0.3910338949346853</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>2048.869990429388</v>
+        <v>7264.804763096608</v>
       </c>
       <c r="R13">
-        <v>18439.82991386449</v>
+        <v>65383.24286786946</v>
       </c>
       <c r="S13">
-        <v>0.02084573323449376</v>
+        <v>0.05058110536017794</v>
       </c>
       <c r="T13">
-        <v>0.02084573323449376</v>
+        <v>0.05058110536017794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H14">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I14">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J14">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>24.98280464021022</v>
+        <v>22.76423577980511</v>
       </c>
       <c r="R14">
-        <v>224.845241761892</v>
+        <v>204.878122018246</v>
       </c>
       <c r="S14">
-        <v>0.0002541815163538768</v>
+        <v>0.0001584956851519649</v>
       </c>
       <c r="T14">
-        <v>0.0002541815163538769</v>
+        <v>0.0001584956851519649</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H15">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I15">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J15">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>27.46770655016311</v>
+        <v>26.37320927807245</v>
       </c>
       <c r="R15">
-        <v>247.209358951468</v>
+        <v>237.358883502652</v>
       </c>
       <c r="S15">
-        <v>0.0002794635511197364</v>
+        <v>0.0001836231145476229</v>
       </c>
       <c r="T15">
-        <v>0.0002794635511197364</v>
+        <v>0.0001836231145476229</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H16">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I16">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J16">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>15.22486121369433</v>
+        <v>20.01838769640178</v>
       </c>
       <c r="R16">
-        <v>137.023750923249</v>
+        <v>180.165489267616</v>
       </c>
       <c r="S16">
-        <v>0.0001549016759849901</v>
+        <v>0.0001393777548374184</v>
       </c>
       <c r="T16">
-        <v>0.0001549016759849901</v>
+        <v>0.0001393777548374184</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1627236666666667</v>
+        <v>0.1562396666666667</v>
       </c>
       <c r="H17">
-        <v>0.488171</v>
+        <v>0.468719</v>
       </c>
       <c r="I17">
-        <v>0.0008012765839441698</v>
+        <v>0.0005530325463144183</v>
       </c>
       <c r="J17">
-        <v>0.0008012765839441699</v>
+        <v>0.0005530325463144184</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>11.07990707731889</v>
+        <v>10.27448906260033</v>
       </c>
       <c r="R17">
-        <v>99.71916369587001</v>
+        <v>92.47040156340299</v>
       </c>
       <c r="S17">
-        <v>0.0001127298404855665</v>
+        <v>7.153599177741212E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001127298404855665</v>
+        <v>7.153599177741213E-05</v>
       </c>
     </row>
   </sheetData>
